--- a/AXSM.xlsx
+++ b/AXSM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15BF567-F760-470E-BA19-AA0AEC2EB71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDCDD7E-FBE4-4BC6-B67D-810CA1DEDA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16155" yWindow="480" windowWidth="33795" windowHeight="20775" xr2:uid="{554FEDA2-1B5D-4C46-93B8-BE90A1D4D356}"/>
+    <workbookView xWindow="-50220" yWindow="1860" windowWidth="22875" windowHeight="18315" xr2:uid="{554FEDA2-1B5D-4C46-93B8-BE90A1D4D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Price</t>
   </si>
@@ -164,12 +164,15 @@
   </si>
   <si>
     <t>Auvelity</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -302,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -322,7 +325,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -336,7 +338,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9484ACF3-6C39-450E-8CC5-2CD37F208E77}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -470,9 +474,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -510,7 +514,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -616,7 +620,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -758,7 +762,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -768,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC835E8-64E1-41F2-AF53-94DA8E8A2848}">
   <dimension ref="B2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -784,65 +788,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="17"/>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>73.790000000000006</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="G3" s="11"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>43.426161999999998</v>
+        <v>48.000205000000001</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>3204.4164939800003</v>
+        <v>4512.0192699999998</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -850,10 +852,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <v>227.25021799999999</v>
+        <v>315.65699999999998</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -861,10 +863,10 @@
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <v>93.913158999999993</v>
+        <v>179.33</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -873,7 +875,7 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>3071.0794349800003</v>
+        <v>4375.6922699999996</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -881,10 +883,10 @@
         <v>7</v>
       </c>
       <c r="L9" s="2">
-        <v>692.45012799999995</v>
+        <v>1086.1199999999999</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -892,10 +894,10 @@
         <v>8</v>
       </c>
       <c r="L10" s="2">
-        <v>535.09312399999999</v>
+        <v>983.27300000000002</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/AXSM.xlsx
+++ b/AXSM.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDCDD7E-FBE4-4BC6-B67D-810CA1DEDA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D892141-B0AF-2B46-BB2C-F443218497D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50220" yWindow="1860" windowWidth="22875" windowHeight="18315" xr2:uid="{554FEDA2-1B5D-4C46-93B8-BE90A1D4D356}"/>
+    <workbookView xWindow="10760" yWindow="760" windowWidth="23800" windowHeight="20560" activeTab="1" xr2:uid="{554FEDA2-1B5D-4C46-93B8-BE90A1D4D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Auvelity" sheetId="3" r:id="rId2"/>
-    <sheet name="Model" sheetId="2" r:id="rId3"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Auvelity" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Price</t>
   </si>
@@ -167,6 +167,36 @@
   </si>
   <si>
     <t>Q224</t>
+  </si>
+  <si>
+    <t>AXS-12 (reboxetine)</t>
+  </si>
+  <si>
+    <t>Narcolepsy</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Sunosi</t>
   </si>
 </sst>
 </file>
@@ -176,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -194,6 +224,12 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -305,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -324,7 +360,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -332,6 +367,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -353,6 +391,61 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>59120</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>59120</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>91965</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77EA95B1-ADB6-D718-670D-06E26DC473DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8322879" y="19707"/>
+          <a:ext cx="0" cy="7133896"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -413,61 +506,6 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>59120</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19707</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>59120</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>91965</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77EA95B1-ADB6-D718-670D-06E26DC473DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8322879" y="19707"/>
-          <a:ext cx="0" cy="7133896"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -772,47 +810,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC835E8-64E1-41F2-AF53-94DA8E8A2848}">
   <dimension ref="B2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="8" max="10" width="2.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="8" max="10" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="16"/>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B3" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C3" t="s">
@@ -821,44 +859,56 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="10"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>48.000205000000001</v>
+        <v>48.436107999999997</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="19"/>
+      <c r="G4" s="10"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>4512.0192699999998</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+        <v>4698.3024759999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B5" s="18"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <v>315.65699999999998</v>
+        <v>386.2</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -869,16 +919,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>4375.6922699999996</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+        <v>4491.432476</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="K9" t="s">
         <v>7</v>
       </c>
@@ -889,7 +939,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
       <c r="K10" t="s">
         <v>8</v>
       </c>
@@ -901,28 +951,442 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="Auvelity!A1" display="Auvelity (dextromethorphan/bupropion)" xr:uid="{39C21ED6-3713-8A45-9907-F974D92E9D7C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673DC795-C510-4C5D-875B-FA5EB5999F78}">
+  <dimension ref="A1:V17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.1640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="6">
+        <v>65</v>
+      </c>
+      <c r="U3" s="3">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3">
+        <v>22.1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>24.4</v>
+      </c>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8">
+        <v>16.845791999999999</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="T5" s="7">
+        <f>T4+T3</f>
+        <v>87.1</v>
+      </c>
+      <c r="U5" s="7">
+        <f>U4+U3</f>
+        <v>104.80000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6">
+        <v>1.9238310000000001</v>
+      </c>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6">
+        <f>+I5-I6</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6">
+        <f>+M5-M6</f>
+        <v>14.921961</v>
+      </c>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
+        <v>13.180258</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6">
+        <v>14.877020999999999</v>
+      </c>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
+        <v>20.226883999999998</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6">
+        <v>40.892443</v>
+      </c>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
+        <f>+I8+I9</f>
+        <v>33.407142</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6">
+        <f>+M8+M9</f>
+        <v>55.769463999999999</v>
+      </c>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6">
+        <f>+I7-I10</f>
+        <v>-33.407142</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6">
+        <f>+M7-M10</f>
+        <v>-40.847503000000003</v>
+      </c>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6">
+        <v>-1.475535</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6">
+        <v>-2.411</v>
+      </c>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6">
+        <f>+I11+I12</f>
+        <v>-34.882677000000001</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6">
+        <f>+M11+M12</f>
+        <v>-43.258503000000005</v>
+      </c>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6">
+        <f>+I13-I14</f>
+        <v>-34.882677000000001</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6">
+        <f>+M13-M14</f>
+        <v>-43.258503000000005</v>
+      </c>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="9">
+        <f>+I15/I17</f>
+        <v>-0.92573733380402201</v>
+      </c>
+      <c r="M16" s="9">
+        <f>+M15/M17</f>
+        <v>-1.0372656701953624</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6">
+        <v>37.680965999999998</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6">
+        <v>41.704362000000003</v>
+      </c>
+      <c r="N17" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{2684DF6B-09EE-4EB5-86A7-3D2ADF1E7F7A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F575F3-BB40-4EB2-AC70-14C094BEE827}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -937,349 +1401,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673DC795-C510-4C5D-875B-FA5EB5999F78}">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8">
-        <v>16.845791999999999</v>
-      </c>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6">
-        <v>1.9238310000000001</v>
-      </c>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6">
-        <f>+I3-I4</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6">
-        <f>+M3-M4</f>
-        <v>14.921961</v>
-      </c>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6">
-        <v>13.180258</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6">
-        <v>14.877020999999999</v>
-      </c>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6">
-        <v>20.226883999999998</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6">
-        <v>40.892443</v>
-      </c>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6">
-        <f>+I6+I7</f>
-        <v>33.407142</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6">
-        <f>+M6+M7</f>
-        <v>55.769463999999999</v>
-      </c>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6">
-        <f>+I5-I8</f>
-        <v>-33.407142</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6">
-        <f>+M5-M8</f>
-        <v>-40.847503000000003</v>
-      </c>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6">
-        <v>-1.475535</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6">
-        <v>-2.411</v>
-      </c>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6">
-        <f>+I9+I10</f>
-        <v>-34.882677000000001</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6">
-        <f>+M9+M10</f>
-        <v>-43.258503000000005</v>
-      </c>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6">
-        <f>+I11-I12</f>
-        <v>-34.882677000000001</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6">
-        <f>+M11-M12</f>
-        <v>-43.258503000000005</v>
-      </c>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="9">
-        <f>+I13/I15</f>
-        <v>-0.92573733380402201</v>
-      </c>
-      <c r="M14" s="9">
-        <f>+M13/M15</f>
-        <v>-1.0372656701953624</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6">
-        <v>37.680965999999998</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6">
-        <v>41.704362000000003</v>
-      </c>
-      <c r="N15" s="6"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{2684DF6B-09EE-4EB5-86A7-3D2ADF1E7F7A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>